--- a/excel_file_formats/Stream Recharge & Baseflow_AA (copy).xlsx
+++ b/excel_file_formats/Stream Recharge & Baseflow_AA (copy).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="50">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -135,9 +135,6 @@
     <t xml:space="preserve">End Day</t>
   </si>
   <si>
-    <t xml:space="preserve">map of spee_no vs start##end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stream Recharge Hydraulic gradient</t>
   </si>
   <si>
@@ -175,12 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">corresponding change in service  for monsson and non-monsoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monsoon/nonM vs streamRech pojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secNo vs data</t>
   </si>
 </sst>
 </file>
@@ -255,6 +246,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -497,19 +489,18 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -812,6 +803,9 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="14" t="s">
@@ -848,18 +842,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AB65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.1173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -974,8 +966,6 @@
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
@@ -1121,11 +1111,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="S.No"/>
@@ -1145,16 +1131,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1208,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1236,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1290,22 +1273,22 @@
         <v>12</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="I8" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N8" s="22"/>
       <c r="S8" s="21"/>
@@ -1328,11 +1311,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="22"/>
@@ -1348,22 +1331,22 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="K10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1475,21 +1458,12 @@
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L19" s="0" t="s">
-        <v>50</v>
+      <c r="G19" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L22" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M24" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A8:A10"/>
